--- a/QueryCau8.xlsx
+++ b/QueryCau8.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\OLAP\IS217_Q13_23521367_23520982\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\IS217_Q13_23521367_23520982\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F37283B-DC25-4427-8599-A124F3343FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEDC4ABD-3E92-4EFF-A145-D840511F1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{CF0891E3-CEBB-4C6E-BAC6-045A56E0096C}"/>
+    <workbookView xWindow="5115" yWindow="1935" windowWidth="21600" windowHeight="11295" xr2:uid="{875F1CE7-9DEE-447A-8541-037E4A393E5C}"/>
   </bookViews>
   <sheets>
-    <sheet name="tmpBF64" sheetId="1" r:id="rId1"/>
+    <sheet name="tmp14C9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId2"/>
+    <pivotCache cacheId="19" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{CE1498CA-A8CC-4DE2-A7D6-E34BB0F74784}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmpBF64.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
+  <connection id="1" xr16:uid="{2DA16A89-EE99-41BA-A5DD-5FF616264A7F}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmp14C9.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=ssas_project;Data Source=SINISTER;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="US Accidents DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -38,7 +38,7 @@
   </metadataTypes>
   <metadataStrings count="2">
     <s v="SINISTER ssas_project"/>
-    <s v="{[DIM LOCATION].[STATE].&amp;[CA]}"/>
+    <s v="{[DIM LOCATION].[STATE].&amp;[CA]&amp;[US]}"/>
   </metadataStrings>
   <mdxMetadata count="1">
     <mdx n="0" f="s">
@@ -68,7 +68,7 @@
     <t>STATE</t>
   </si>
   <si>
-    <t>Riverside</t>
+    <t>Oakland</t>
   </si>
   <si>
     <t>Sacramento</t>
@@ -633,24 +633,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45970.725120138886" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1748D679-3614-4B06-AB43-53BA2F3DD637}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45977.504349305556" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{C638274B-19F4-4C7B-94E6-809EE1476F3B}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" numFmtId="0" hierarchy="52">
+  <cacheFields count="4">
+    <cacheField name="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" numFmtId="0" hierarchy="55">
       <sharedItems count="5">
-        <s v="[DIM LOCATION].[CITY].&amp;[Los Angeles]&amp;[Los Angeles]&amp;[CA]" c="Los Angeles"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Riverside]&amp;[Riverside]&amp;[CA]" c="Riverside"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Sacramento]&amp;[Sacramento]&amp;[CA]" c="Sacramento"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[San Diego]&amp;[San Diego]&amp;[CA]" c="San Diego"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[San Jose]&amp;[Santa Clara]&amp;[CA]" c="San Jose"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Los Angeles]&amp;[Los Angeles]&amp;[CA]&amp;[US]" c="Los Angeles"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Oakland]&amp;[Alameda]&amp;[CA]&amp;[US]" c="Oakland"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Sacramento]&amp;[Sacramento]&amp;[CA]&amp;[US]" c="Sacramento"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[San Diego]&amp;[San Diego]&amp;[CA]&amp;[US]" c="San Diego"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[San Jose]&amp;[Santa Clara]&amp;[CA]&amp;[US]" c="San Jose"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[DangerIndex]" caption="DangerIndex" numFmtId="0" hierarchy="47" level="32767"/>
-    <cacheField name="[DIM LOCATION].[STATE].[STATE]" caption="STATE" numFmtId="0" hierarchy="20" level="1">
+    <cacheField name="[Measures].[DangerIndex]" caption="DangerIndex" numFmtId="0" hierarchy="49" level="32767"/>
+    <cacheField name="[DIM LOCATION].[STATE].[STATE]" caption="STATE" numFmtId="0" hierarchy="21" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM LOCATION].[STATE].[STATE].[COUNTRY]" caption="COUNTRY" propertyName="COUNTRY" numFmtId="0" hierarchy="21" level="1" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="57">
+  <cacheHierarchies count="61">
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[AMENITY]" caption="AMENITY" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" allUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[BUMP]" caption="BUMP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" allUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[CROSSING]" caption="CROSSING" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" allUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
@@ -666,6 +669,7 @@
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL]" caption="TRAFFIC SIGNAL" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" allUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TURNING LOOP]" caption="TURNING LOOP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" allUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[CITY]" caption="CITY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[CITY].[All]" allUniqueName="[DIM LOCATION].[CITY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTRY]" caption="COUNTRY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTRY].[All]" allUniqueName="[DIM LOCATION].[COUNTRY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTY].[All]" allUniqueName="[DIM LOCATION].[COUNTY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM LOCATION].[Hierarchy].[All]" allUniqueName="[DIM LOCATION].[Hierarchy].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[LATITUDE]" caption="LATITUDE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[LATITUDE].[All]" allUniqueName="[DIM LOCATION].[LATITUDE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
@@ -679,6 +683,7 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[DIM LOCATION].[STREET]" caption="STREET" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STREET].[All]" allUniqueName="[DIM LOCATION].[STREET].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[ZIPCODE]" caption="ZIPCODE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[ZIPCODE].[All]" allUniqueName="[DIM LOCATION].[ZIPCODE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[DATE]" caption="DATE" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DATE].[All]" allUniqueName="[DIM TIME].[DATE].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[DAY]" caption="DAY" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DAY].[All]" allUniqueName="[DIM TIME].[DAY].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[DIM TIME].[Hierarchy].[All]" allUniqueName="[DIM TIME].[Hierarchy].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[HOUR]" caption="HOUR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[HOUR].[All]" allUniqueName="[DIM TIME].[HOUR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
@@ -686,7 +691,7 @@
     <cacheHierarchy uniqueName="[DIM TIME].[MONTH]" caption="MONTH" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[MONTH].[All]" allUniqueName="[DIM TIME].[MONTH].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[QUARTER]" caption="QUARTER" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[QUARTER].[All]" allUniqueName="[DIM TIME].[QUARTER].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[TIME ID]" caption="TIME ID" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DIM TIME].[TIME ID].[All]" allUniqueName="[DIM TIME].[TIME ID].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM TIME].[YEAR]" caption="YEAR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[YEAR].[All]" allUniqueName="[DIM TIME].[YEAR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[YEAR]" caption="YEAR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[YEAR].[All]" allUniqueName="[DIM TIME].[YEAR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM WEATHER].[HUMIDITY]" caption="HUMIDITY" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[HUMIDITY].[All]" allUniqueName="[DIM WEATHER].[HUMIDITY].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM WEATHER].[PRECIPITATION]" caption="PRECIPITATION" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[PRECIPITATION].[All]" allUniqueName="[DIM WEATHER].[PRECIPITATION].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM WEATHER].[PRESSURE]" caption="PRESSURE" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[PRESSURE].[All]" allUniqueName="[DIM WEATHER].[PRESSURE].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
@@ -710,8 +715,9 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[YoYGrowth_Percent]" caption="YoYGrowth_Percent" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Avg YoY Growth Range]" caption="Avg YoY Growth Range" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Traffic Signal)]" caption="Accidents (Traffic Signal)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Stop Sign)]" caption="Accidents (Stop Sign)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Top20CityHighestGrowth]" caption="Top20CityHighestGrowth" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
@@ -726,10 +732,11 @@
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="20" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="34" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="36" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="22" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="5">
@@ -757,9 +764,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C5C1297-7C80-4C79-BC30-50262DEF16FC}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{792098C5-6868-4D97-A5FA-DF3FE146B018}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
+  <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="5">
         <item x="0"/>
@@ -771,6 +778,7 @@
     </pivotField>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -796,32 +804,38 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="2" hier="20" name="[DIM LOCATION].[STATE].&amp;[CA]" cap="CA"/>
+    <pageField fld="2" hier="21" name="[DIM LOCATION].[STATE].&amp;[CA]&amp;[US]" cap="CA"/>
   </pageFields>
   <dataFields count="1">
     <dataField fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="57">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="61">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="3"/>
+      </mps>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -852,6 +866,8 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -862,7 +878,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="52"/>
+    <rowHierarchyUsage hierarchyUsage="55"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1191,10 +1207,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1571A571-2A73-436C-A161-04E66BE78B95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1A21CB-0673-427C-BF55-EE0AE32BCC31}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1223,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>243078</v>
+        <v>534771.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>39887.800000000003</v>
+        <v>89304.97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>97143.03</v>
+        <v>201086.07</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>83286.77</v>
+        <v>180732.29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>51817.15</v>
+        <v>111406.87</v>
       </c>
     </row>
   </sheetData>
